--- a/Lamia/DBASE/create/Base2_eaupotable_0_4.xlsx
+++ b/Lamia/DBASE/create/Base2_eaupotable_0_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="594">
   <si>
     <t>Lamia</t>
   </si>
@@ -1793,19 +1793,35 @@
   </si>
   <si>
     <t>Fermé</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>HEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1918,44 +1934,45 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4206,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,7 +4971,10 @@
       <c r="F68" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>587</v>
       </c>
     </row>
@@ -4962,7 +4982,10 @@
       <c r="F69" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="G69" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="H69" s="24" t="s">
         <v>587</v>
       </c>
     </row>
@@ -4970,7 +4993,10 @@
       <c r="F70" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="H70" s="24" t="s">
         <v>587</v>
       </c>
     </row>

--- a/Lamia/DBASE/create/Base2_eaupotable_0_4.xlsx
+++ b/Lamia/DBASE/create/Base2_eaupotable_0_4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="607">
   <si>
     <t>Lamia</t>
   </si>
@@ -1003,9 +1003,6 @@
     <t xml:space="preserve">            COM</t>
   </si>
   <si>
-    <t>Débitmètre</t>
-  </si>
-  <si>
     <t>Chloration</t>
   </si>
   <si>
@@ -1802,19 +1799,68 @@
   </si>
   <si>
     <t>HEX</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>VIA</t>
+  </si>
+  <si>
+    <t>Bâche</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>(Débitmètre)</t>
+  </si>
+  <si>
+    <t>Sectorisation</t>
+  </si>
+  <si>
+    <t>Interconnexion</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>CBR</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>CPR</t>
+  </si>
+  <si>
+    <t>['COM']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1934,44 +1980,45 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -2738,7 +2785,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
@@ -2827,7 +2874,7 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
@@ -3083,13 +3130,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3203,7 +3250,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
         <v>136</v>
@@ -3214,7 +3261,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
         <v>136</v>
@@ -3375,7 +3422,7 @@
         <v>198</v>
       </c>
       <c r="G29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>14</v>
@@ -3383,38 +3430,38 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F31" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F32" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="G32" s="23" t="s">
         <v>573</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,7 +3474,7 @@
         <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,7 +3482,7 @@
         <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3443,7 +3490,7 @@
         <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,7 +3538,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -3518,7 +3565,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -3530,10 +3577,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>547</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3541,12 +3588,12 @@
         <v>97</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -3556,7 +3603,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -3568,18 +3615,18 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F51" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F52" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4221,10 +4268,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,19 +4283,19 @@
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="9" max="11" width="23.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4297,10 +4344,10 @@
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>315</v>
@@ -4310,11 +4357,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>317</v>
+      <c r="F4" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>317</v>
@@ -4326,54 +4373,54 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="F5" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="F6" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>560</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="12" t="s">
-        <v>325</v>
+      <c r="F8" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="12" t="s">
-        <v>327</v>
+      <c r="F9" s="27" t="s">
+        <v>597</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>153</v>
@@ -4381,26 +4428,26 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4408,7 +4455,7 @@
         <v>97</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4416,12 +4463,12 @@
         <v>187</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>136</v>
@@ -4429,7 +4476,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>136</v>
@@ -4437,7 +4484,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>136</v>
@@ -4445,7 +4492,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -4460,1115 +4507,1207 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="F21" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="H21" s="24" t="s">
         <v>579</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="F22" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>351</v>
+      <c r="F22" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>351</v>
+      <c r="G23" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="F24" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="F25" s="2" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="F26" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="F27" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="F28" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="F29" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="F30" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="F31" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="F32" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="F33" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
+      <c r="F34" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
+      <c r="F35" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="24"/>
+      <c r="F36" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="F37" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="F38" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="F39" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="F40" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F44" s="2" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>385</v>
+      <c r="F47" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>388</v>
+      <c r="F48" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F49" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F50" s="2" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>394</v>
+      <c r="F51" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>596</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F52" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F53" s="2" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F56" s="2" t="s">
-        <v>14</v>
+        <v>388</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="2" t="s">
-        <v>405</v>
+      <c r="F58" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F59" s="2" t="s">
-        <v>97</v>
+        <v>395</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>160</v>
+        <v>396</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F64" s="2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F65" s="2" t="s">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
-        <v>588</v>
+      <c r="A67" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="G68" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="24" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G76" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="H68" s="24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F69" s="24" t="s">
+      <c r="H76" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G77" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="H69" s="24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F70" s="24" t="s">
+      <c r="H77" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="G70" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>136</v>
+    </row>
+    <row r="79" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B81" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>427</v>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="5"/>
+      <c r="F84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="5"/>
+      <c r="F85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F89" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="24" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F98" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="G90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="G91" s="2">
+      <c r="G98" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F100" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="2">
-        <v>0</v>
+    <row r="100" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B101" s="5" t="s">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B102" s="5" t="s">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F102" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F113" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F114" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F115" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>451</v>
+        <v>15</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F116" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F117" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F118" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>457</v>
+        <v>16</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="2">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>461</v>
+        <v>445</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="2">
-        <v>0</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>14</v>
+      <c r="F122" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F123" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="2">
-        <v>1</v>
+        <v>451</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" s="2">
-        <v>0</v>
+        <v>453</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B125" s="5" t="s">
+      <c r="F125" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="E126" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G126" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="H128" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="B137" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B130" s="5" t="s">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="5" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="22" t="s">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="21" t="s">
+      <c r="B149" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="21" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="B147" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5602,13 +5741,13 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5648,7 +5787,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5663,62 +5802,62 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="I5" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>557</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5726,7 +5865,7 @@
         <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5739,7 +5878,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -5751,117 +5890,117 @@
         <v>213</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F18" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F19" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>136</v>
@@ -5869,7 +6008,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -5877,7 +6016,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>136</v>
@@ -5885,7 +6024,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>136</v>
@@ -5893,7 +6032,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>136</v>
@@ -5901,7 +6040,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5914,7 +6053,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
@@ -5922,7 +6061,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
@@ -5933,44 +6072,44 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F34" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F35" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F36" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>136</v>
@@ -5978,12 +6117,12 @@
     </row>
     <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>136</v>
@@ -5991,7 +6130,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -6005,7 +6144,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>136</v>
@@ -6013,7 +6152,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>136</v>
@@ -6021,7 +6160,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>136</v>
@@ -6029,7 +6168,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>136</v>
@@ -6037,7 +6176,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>136</v>
@@ -6045,7 +6184,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>136</v>
@@ -6074,7 +6213,7 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -6108,7 +6247,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -6119,7 +6258,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -6127,7 +6266,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -6135,7 +6274,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G6" s="8">
         <v>2</v>
@@ -6143,7 +6282,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -6157,7 +6296,7 @@
       <c r="C8"/>
       <c r="D8" s="1"/>
       <c r="F8" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -6168,7 +6307,7 @@
       <c r="C9"/>
       <c r="D9" s="1"/>
       <c r="F9" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -6179,7 +6318,7 @@
       <c r="C10"/>
       <c r="D10" s="1"/>
       <c r="F10" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G10" s="8">
         <v>2</v>
@@ -6187,7 +6326,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -6198,7 +6337,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -6207,7 +6346,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="F13" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -6216,7 +6355,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="F14" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G14" s="8">
         <v>2</v>
@@ -6224,7 +6363,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -6235,7 +6374,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -6243,7 +6382,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -6251,7 +6390,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G18" s="8">
         <v>2</v>
@@ -6259,7 +6398,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>12</v>
